--- a/tut05/output/0401CS36.xlsx
+++ b/tut05/output/0401CS36.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.897959183673469</v>
+        <v>7.9</v>
       </c>
       <c r="C6" t="n">
-        <v>7.204545454545454</v>
+        <v>7.2</v>
       </c>
       <c r="D6" t="n">
-        <v>8.209302325581396</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.276595744680851</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8.761904761904763</v>
+        <v>8.76</v>
       </c>
       <c r="G6" t="n">
-        <v>8.775</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>9.146341463414634</v>
+        <v>9.15</v>
       </c>
       <c r="I6" t="n">
         <v>8.949999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.897959183673469</v>
+        <v>7.9</v>
       </c>
       <c r="C8" t="n">
-        <v>7.56989247311828</v>
+        <v>7.57</v>
       </c>
       <c r="D8" t="n">
-        <v>7.772058823529412</v>
+        <v>7.77</v>
       </c>
       <c r="E8" t="n">
-        <v>7.901639344262295</v>
+        <v>7.9</v>
       </c>
       <c r="F8" t="n">
-        <v>8.062222222222223</v>
+        <v>8.06</v>
       </c>
       <c r="G8" t="n">
-        <v>8.169811320754716</v>
+        <v>8.17</v>
       </c>
       <c r="H8" t="n">
-        <v>8.300653594771243</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.375722543352602</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
   </sheetData>
